--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2209929.548666153</v>
+        <v>2255931.439081814</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276635</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484438</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5525715.328627381</v>
+        <v>5602701.235917781</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>335.0452643929978</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>327.2879775827834</v>
-      </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -801,7 +801,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035089</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -823,16 +823,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>100.176219543324</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>229.8635849988177</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +896,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>421.0520209383017</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>322.9639268876603</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>114.3486586083445</v>
       </c>
       <c r="I7" t="n">
-        <v>8.129390960577897</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.67859516108212</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>347.203406430848</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1199,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
-        <v>8.129390960577833</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>113.1067293763207</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>48.38806639661482</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>43.48898701015918</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C14" t="n">
-        <v>228.8762324996565</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,10 +1670,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>24.6270352077663</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1907,10 +1907,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864814</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>122.9742767430571</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2144,10 +2144,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>50.30825486907111</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>144.493775385548</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2485,10 +2485,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170442</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>103.8284742946031</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>129.7139627068459</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3092,7 +3092,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864838</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.07627015600832</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758683</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445362</v>
+        <v>35.34780583513515</v>
       </c>
       <c r="I37" t="n">
-        <v>85.03426481107837</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968879</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>99.70657830481271</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353362</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570397</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.07627015600832</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758683</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.40241347253706</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353362</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262808</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570397</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>141.1114313885496</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.07627015600832</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336987</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>161.1962773024376</v>
+        <v>24.3431845617053</v>
       </c>
       <c r="H43" t="n">
-        <v>113.805146694749</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.03426481107837</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9098700929902</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353362</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174327</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4063890570397</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580657</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664179</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.8116020553069</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712947</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728913</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409757</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>283.4997680892229</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>7.503569422949823</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341602</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435187</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.067815121084</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644894</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.4641775413501</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098042</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279484995</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758683</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024376</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.40241347253735</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353362</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174327</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262808</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475784</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570397</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1654.761434047123</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439876</v>
+        <v>1316.331874054196</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>887.7501997914644</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>459.1685255287327</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,28 +4328,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4373,7 +4373,7 @@
         <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.5714734656729</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C4" t="n">
-        <v>301.0097619488978</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>135.1317691504205</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1233.160939331176</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1580.667833301518</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.201517537139</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="X4" t="n">
-        <v>892.8097628705518</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.39009218466</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>561.5849947540278</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5785571901426</v>
+        <v>136.2799230991775</v>
       </c>
       <c r="D5" t="n">
-        <v>383.996882927411</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.67620151272529</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1975.120543515259</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.128202908534</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1815.313152359972</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1396.170688939282</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>987.8845652389356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1032.553386008951</v>
+        <v>593.0357356940385</v>
       </c>
       <c r="C7" t="n">
-        <v>859.9916744921758</v>
+        <v>420.4740241772635</v>
       </c>
       <c r="D7" t="n">
-        <v>694.1136816936985</v>
+        <v>254.5960313787861</v>
       </c>
       <c r="E7" t="n">
-        <v>524.3556779444357</v>
+        <v>254.5960313787861</v>
       </c>
       <c r="F7" t="n">
-        <v>347.6486239061919</v>
+        <v>254.5960313787861</v>
       </c>
       <c r="G7" t="n">
-        <v>182.0573489320196</v>
+        <v>254.5960313787861</v>
       </c>
       <c r="H7" t="n">
-        <v>42.1551746223941</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1697.183430080417</v>
+        <v>1257.665779765505</v>
       </c>
       <c r="X7" t="n">
-        <v>1451.79167541383</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>1224.372004727938</v>
+        <v>784.8543544130257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1033.105672808467</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>613.9632093877782</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.6770856874316</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>1688.971924059632</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1688.971924059632</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1688.971924059632</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.969308202877</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.14230571904</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F11" t="n">
-        <v>787.2748761282473</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8770447515112</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>96.74689019472689</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.5847882747847</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1365.935080232963</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2440.995046485822</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2440.995046485822</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.174713056128</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.484587889524</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q11" t="n">
-        <v>4647.350976340288</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4732.853167277181</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4512.78594015022</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4253.563637467237</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3890.946687401063</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.69746580882</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.555002388131</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.268878687784</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963552</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.0653069414827</v>
+        <v>1057.634124109941</v>
       </c>
       <c r="C13" t="n">
-        <v>792.5035954247077</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>626.6256026262304</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>456.8675988769676</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>280.1605448387238</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>236.2322751314924</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>96.33010082186689</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889993</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860335</v>
+        <v>2550.727675309252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S13" t="n">
-        <v>2712.989710724667</v>
+        <v>2559.679081471581</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.110264303122</v>
+        <v>2559.679081471581</v>
       </c>
       <c r="U13" t="n">
-        <v>2188.677263556227</v>
+        <v>2281.246080724686</v>
       </c>
       <c r="V13" t="n">
-        <v>1901.721755426658</v>
+        <v>1994.290572595116</v>
       </c>
       <c r="W13" t="n">
-        <v>1629.695351012949</v>
+        <v>1722.264168181408</v>
       </c>
       <c r="X13" t="n">
-        <v>1384.303596346362</v>
+        <v>1476.87241351482</v>
       </c>
       <c r="Y13" t="n">
-        <v>1156.88392566047</v>
+        <v>1249.452742828928</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2316.014949022316</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.8268353863</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.917050560744</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.142305719039</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2748761282468</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8770447515107</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>96.74689019472689</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>382.952390766954</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1217.302682725132</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2292.362648977991</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2292.362648977991</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2292.362648977991</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3272.542315548298</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4100.852190381694</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4647.350976340288</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093345</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4816.505041093345</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4596.437813966383</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4337.2155112834</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3974.598561217226</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3569.74310662826</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.600643207571</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2742.314519507224</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131597</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963552</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>306.8346811233089</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394705</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056544</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>446.9520989485368</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.291526113702</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929228</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.8261378987979</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>774.2644263820232</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>608.3864335835458</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E16" t="n">
-        <v>438.6284298342831</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F16" t="n">
-        <v>261.9213757960392</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G16" t="n">
-        <v>96.33010082186689</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H16" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186689</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576923</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256534</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2694.750541681982</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.871095260437</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.438094513542</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.482586383973</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.456181970264</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.064427303677</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.644756617785</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,46 +5519,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5671,13 +5671,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
         <v>1341.292728955479</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2594.704009018976</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771591</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.807784200423</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5829,7 +5829,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5908,13 +5908,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5944,16 +5944,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883913</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716163</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
         <v>473.3149733731391</v>
@@ -6133,7 +6133,7 @@
         <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856326</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6190,7 +6190,7 @@
         <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407378</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477103</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
         <v>780.1951658309357</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066697</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6680,61 +6680,61 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
@@ -6743,7 +6743,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.083736995626</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.708016625507</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.564984246409</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851162</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068275</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>387.8252357765493</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662231</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.949291195803</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3529.12895776611</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4357.438832599505</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4903.9376185581</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.091683311157</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.206561941452</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.906087260948</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.450537024422</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404707</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262198</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034077</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941582</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266807</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1161.152727152901</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>991.3577680825837</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>828.246527730564</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>661.2552764277589</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>487.3149748359727</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G37" t="n">
-        <v>324.4904523082581</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H37" t="n">
-        <v>187.3550304450902</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.7532129036863</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.223361547595</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883291</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.310995872433</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170988</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214102</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151208</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2721.163927303037</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2620.450211843631</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2377.337517868544</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2101.671269568107</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1817.482513884995</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1817.482513884995</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1574.857511664865</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1350.204593425431</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995627</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625508</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.564984246409</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851162</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068277</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>387.8252357765493</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662231</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>536.716521119141</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.066813077319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.126779330178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3603.174614540729</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3603.174614540729</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.174614540729</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4357.438832599505</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4903.9376185581</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.091683311157</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.206561941452</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.906087260948</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.450537024422</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404707</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262197</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287966</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034077</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.633578657516</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941582</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>228.5825755838268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266807</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1011.257859493227</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>841.4629004229093</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>678.3516600708896</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>511.3604087680845</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>337.4201071762984</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>174.5955846485838</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>174.5955846485838</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662231</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.7532129036861</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475948</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883289</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642015</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.310995872433</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170987</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214102</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151208</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2739.814996151208</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2739.814996151208</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2496.70230217612</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2221.036053875683</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.847298192571</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1667.58764622532</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1424.96264400519</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1200.309725765756</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2214.54676454999</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.17104417987</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.634244797497</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5255752579149</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276365</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>95.5310942173104</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>95.5310942173104</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>530.7857816702283</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2440.196039881266</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3420.375706451572</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4248.685581284968</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4776.55471086552</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.55471086552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4695.669589495815</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4478.369114815311</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.913564578786</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3862.06336695907</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3459.974664816561</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3043.598953842329</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2638.07958258844</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>400.1560891917987</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187524</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>222.651836134914</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2667464010979</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.5310942173104</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>121.594767377768</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.04125947188</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C43" t="n">
-        <v>963.2463004015626</v>
+        <v>639.1929661716173</v>
       </c>
       <c r="D43" t="n">
-        <v>800.1350600495432</v>
+        <v>473.31497337314</v>
       </c>
       <c r="E43" t="n">
-        <v>633.1438087467379</v>
+        <v>303.5569696238773</v>
       </c>
       <c r="F43" t="n">
-        <v>459.2035071549518</v>
+        <v>126.8499155856335</v>
       </c>
       <c r="G43" t="n">
-        <v>296.378984627237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>181.4242909961774</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>95.5310942173104</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.8224734547734</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.292622098682</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394162</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722075</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.97978776519</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R43" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S43" t="n">
-        <v>2577.409640446749</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2334.296946471662</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U43" t="n">
-        <v>2058.630698171224</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>2058.630698171224</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1789.371046203973</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1546.746043983843</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.093125744409</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2505.152997546714</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2069.777277176594</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.634244797497</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.62625240225</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5255752579149</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>381.8944963276365</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>95.5310942173104</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>95.5310942173104</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>530.7857816702283</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2440.196039881266</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2968.065169461818</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3948.244836032124</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4776.55471086552</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4776.55471086552</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.55471086552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4776.55471086552</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4768.975347812036</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4512.51979757551</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4152.669599955794</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3750.580897813285</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3334.205186839053</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2928.685815585164</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086032</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452455</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>400.1560891917987</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187524</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.651836134914</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2667464010979</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>95.5310942173104</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>121.594767377768</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439803</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883664</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>932.1933690619539</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>762.3984099916361</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>599.287169639616</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>432.2959183368113</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>258.3556167450251</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>95.5310942173104</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>95.5310942173104</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>95.5310942173104</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>184.8224734547734</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.292622098682</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394162</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.409759193102</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.38025642352</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722075</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.97978776519</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702295</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2660.750505719934</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2417.637811744847</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2141.97156344441</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V46" t="n">
-        <v>1857.782807761298</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.523155794047</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.898153573917</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1121.245235334483</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7988,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.6925219988882</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>243.6685872558655</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>401.8852408593575</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>289.5174645909971</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8611230965907</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,16 +10829,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>761.8830485442186</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>533.2011409904562</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>533.2011409904567</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11315,10 +11315,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>287.7001706667563</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>122.4480280049925</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>204.8848155887544</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>120.4463752142722</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>88.19489769745812</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>103.1553467313941</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>55.20329178817754</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475784</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445362</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>12.63185133854131</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968879</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>154.9098700929902</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>287.7001706667573</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="H43" t="n">
-        <v>21.95892094978718</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968879</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262808</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.07627015600832</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>207.6239005107489</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445362</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.03426481107837</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968879</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>82.5074566204529</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466850.1252909917</v>
+        <v>475305.0069065085</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>466850.1252909917</v>
+        <v>476827.3269371255</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>467183.1378945165</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>467183.1378945165</v>
+        <v>488412.9996321557</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>488412.9996321557</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>488412.9996321558</v>
+        <v>488412.9996321557</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>488412.9996321559</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>489391.1862925116</v>
+        <v>488412.9996321557</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>489391.1862925116</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>468161.3245548721</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>468161.3245548721</v>
+        <v>488412.9996321558</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="C2" t="n">
+        <v>495936.2708986278</v>
+      </c>
+      <c r="D2" t="n">
         <v>495936.2708986277</v>
       </c>
-      <c r="D2" t="n">
-        <v>495936.2708986276</v>
-      </c>
       <c r="E2" t="n">
-        <v>466159.9017608574</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="F2" t="n">
-        <v>466159.9017608576</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="G2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="H2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="I2" t="n">
         <v>487343.2653270507</v>
@@ -26341,19 +26341,19 @@
         <v>487343.2653270507</v>
       </c>
       <c r="L2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="M2" t="n">
+        <v>487343.2653270506</v>
+      </c>
+      <c r="N2" t="n">
         <v>487343.2653270508</v>
       </c>
-      <c r="M2" t="n">
-        <v>488792.9691899936</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488792.9691899936</v>
-      </c>
       <c r="O2" t="n">
-        <v>467609.6056238003</v>
+        <v>487343.2653270509</v>
       </c>
       <c r="P2" t="n">
-        <v>467609.6056238003</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501618</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998276</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932544</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.813903054426191e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877252</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622307</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017871</v>
+        <v>152200.1709379875</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940155</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>52190.18470672001</v>
+        <v>54561.82510962286</v>
       </c>
       <c r="F4" t="n">
-        <v>52190.18470672001</v>
+        <v>54561.82510962283</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962284</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.8251096228</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26445,19 +26445,19 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.8251096227</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>56904.5829656275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>56904.58296562749</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="O4" t="n">
-        <v>54532.94256272473</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>54532.94256272473</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461883</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461883</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.26571663661</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.26571663661</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546293</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546293</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>100623.5024505309</v>
       </c>
       <c r="C6" t="n">
-        <v>242814.803110241</v>
+        <v>202411.2574015936</v>
       </c>
       <c r="D6" t="n">
-        <v>242814.8031102409</v>
+        <v>262185.9565410981</v>
       </c>
       <c r="E6" t="n">
-        <v>107918.6384362641</v>
+        <v>172684.868051203</v>
       </c>
       <c r="F6" t="n">
-        <v>340758.8404295187</v>
+        <v>355039.9772722527</v>
       </c>
       <c r="G6" t="n">
-        <v>334744.1175884449</v>
+        <v>355039.9772722527</v>
       </c>
       <c r="H6" t="n">
-        <v>355063.2016116354</v>
+        <v>355039.9772722527</v>
       </c>
       <c r="I6" t="n">
-        <v>355063.2016116354</v>
+        <v>355039.9772722526</v>
       </c>
       <c r="J6" t="n">
-        <v>244048.7362666452</v>
+        <v>244025.5119272626</v>
       </c>
       <c r="K6" t="n">
-        <v>355063.2016116354</v>
+        <v>301994.1226334802</v>
       </c>
       <c r="L6" t="n">
-        <v>355063.2016116356</v>
+        <v>345647.6755456305</v>
       </c>
       <c r="M6" t="n">
-        <v>160507.9424059424</v>
+        <v>202839.8063342651</v>
       </c>
       <c r="N6" t="n">
-        <v>354547.1205077295</v>
+        <v>355039.9772722528</v>
       </c>
       <c r="O6" t="n">
-        <v>340242.7593256127</v>
+        <v>355039.977272253</v>
       </c>
       <c r="P6" t="n">
-        <v>340242.7593256127</v>
+        <v>355039.9772722528</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.272920827789</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.272920827789</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.13867771638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.13867771638</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921993085</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939337</v>
       </c>
       <c r="E4" t="n">
-        <v>779.8304027532317</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140919</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939337</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962756</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939337</v>
       </c>
       <c r="M4" t="n">
-        <v>779.8304027532317</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140919</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>98.71578369541311</v>
       </c>
       <c r="D2" t="n">
-        <v>104.2627093945165</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
+        <v>5.14113987318342</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.88420416844608</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27594,13 +27594,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>13.07425212110397</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>12.70902715010919</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E5" t="n">
-        <v>106.4730705056275</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.15449395818469</v>
       </c>
       <c r="I7" t="n">
-        <v>79.64395877249352</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.3579796189766</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
-        <v>235.2912609967514</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>4.651176503178812e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.039137308914149e-12</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.936877707947525e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921993043</v>
+        <v>-2.740183841666113e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921993043</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921993043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34708,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>117.6925219988882</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>243.6685872558655</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,7 +35428,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>401.8852408593575</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512993</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>289.5174645909971</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,10 +35726,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8611230965907</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107394</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865517</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384998</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041467</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>761.8830485442186</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107371</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.1733089300345</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865517</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732873</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495385003</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>533.2011409904562</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107371</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300346</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495385003</v>
+        <v>351.0170646165079</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>533.2011409904567</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38035,10 +38035,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107371</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180896</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300346</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865516</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175936</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732875</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495385003</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041471</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
